--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H2">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I2">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>0.023493321385</v>
+        <v>0.02453744970333333</v>
       </c>
       <c r="R2">
-        <v>0.211439892465</v>
+        <v>0.22083704733</v>
       </c>
       <c r="S2">
-        <v>0.1188810693477905</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="T2">
-        <v>0.1188810693477906</v>
+        <v>0.1715865889461355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H3">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I3">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
-        <v>0.06614546200500002</v>
+        <v>0.06614546200499999</v>
       </c>
       <c r="R3">
-        <v>0.5953091580450001</v>
+        <v>0.595309158045</v>
       </c>
       <c r="S3">
-        <v>0.3347097299183374</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="T3">
-        <v>0.3347097299183374</v>
+        <v>0.4625449807101323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H4">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I4">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>0.02570832591666667</v>
+        <v>0.04061415362666666</v>
       </c>
       <c r="R4">
-        <v>0.23137493325</v>
+        <v>0.36552738264</v>
       </c>
       <c r="S4">
-        <v>0.1300894507860516</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="T4">
-        <v>0.1300894507860516</v>
+        <v>0.2840084918355373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H5">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I5">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>0.01380670188166667</v>
+        <v>0.01170624194</v>
       </c>
       <c r="R5">
-        <v>0.124260316935</v>
+        <v>0.10535617746</v>
       </c>
       <c r="S5">
-        <v>0.06986476952154821</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="T5">
-        <v>0.06986476952154824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.001593</v>
-      </c>
-      <c r="H6">
-        <v>0.004779</v>
-      </c>
-      <c r="I6">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J6">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>7.818077</v>
-      </c>
-      <c r="N6">
-        <v>23.454231</v>
-      </c>
-      <c r="O6">
-        <v>0.1819018824829088</v>
-      </c>
-      <c r="P6">
-        <v>0.1819018824829088</v>
-      </c>
-      <c r="Q6">
-        <v>0.012454196661</v>
-      </c>
-      <c r="R6">
-        <v>0.112087769949</v>
-      </c>
-      <c r="S6">
-        <v>0.06302081313511824</v>
-      </c>
-      <c r="T6">
-        <v>0.06302081313511826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.001593</v>
-      </c>
-      <c r="H7">
-        <v>0.004779</v>
-      </c>
-      <c r="I7">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J7">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>22.011801</v>
-      </c>
-      <c r="N7">
-        <v>66.035403</v>
-      </c>
-      <c r="O7">
-        <v>0.5121448712693895</v>
-      </c>
-      <c r="P7">
-        <v>0.5121448712693895</v>
-      </c>
-      <c r="Q7">
-        <v>0.035064798993</v>
-      </c>
-      <c r="R7">
-        <v>0.315583190937</v>
-      </c>
-      <c r="S7">
-        <v>0.177435141351052</v>
-      </c>
-      <c r="T7">
-        <v>0.1774351413510521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.001593</v>
-      </c>
-      <c r="H8">
-        <v>0.004779</v>
-      </c>
-      <c r="I8">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J8">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8.555183333333334</v>
-      </c>
-      <c r="N8">
-        <v>25.66555</v>
-      </c>
-      <c r="O8">
-        <v>0.1990520115521681</v>
-      </c>
-      <c r="P8">
-        <v>0.1990520115521681</v>
-      </c>
-      <c r="Q8">
-        <v>0.01362840705</v>
-      </c>
-      <c r="R8">
-        <v>0.12265566345</v>
-      </c>
-      <c r="S8">
-        <v>0.06896256076611652</v>
-      </c>
-      <c r="T8">
-        <v>0.06896256076611655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.001593</v>
-      </c>
-      <c r="H9">
-        <v>0.004779</v>
-      </c>
-      <c r="I9">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J9">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.594576333333333</v>
-      </c>
-      <c r="N9">
-        <v>13.783729</v>
-      </c>
-      <c r="O9">
-        <v>0.1069012346955337</v>
-      </c>
-      <c r="P9">
-        <v>0.1069012346955337</v>
-      </c>
-      <c r="Q9">
-        <v>0.007319160099</v>
-      </c>
-      <c r="R9">
-        <v>0.06587244089100001</v>
-      </c>
-      <c r="S9">
-        <v>0.03703646517398546</v>
-      </c>
-      <c r="T9">
-        <v>0.03703646517398548</v>
+        <v>0.0818599385081949</v>
       </c>
     </row>
   </sheetData>
